--- a/xlsx/奥地利_intext.xlsx
+++ b/xlsx/奥地利_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1058">
   <si>
     <t>奥地利</t>
   </si>
@@ -29,7 +29,7 @@
     <t>奥地利国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_奥地利</t>
+    <t>政策_政策_美国_奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E5%9B%BD%E5%BE%BD</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B9%8B%E5%9C%8B%EF%BC%8C%E6%B2%B3%E4%B9%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>山之國，河之國</t>
+    <t>山之国，河之国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E5%BE%B7%E8%AF%AD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>巴伐利亞語</t>
+    <t>巴伐利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A%E8%AF%AD</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿勒曼尼語</t>
+    <t>阿勒曼尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>奧地利人</t>
+    <t>奥地利人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E4%BA%BA</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E7%BE%A4</t>
   </si>
   <si>
-    <t>少數族群</t>
+    <t>少数族群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -197,61 +197,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
+    <t>联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%A6%96%E9%95%B7%E5%88%B6</t>
   </si>
   <si>
-    <t>雙首長制</t>
+    <t>双首长制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐陸法系</t>
+    <t>欧陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E6%80%BB%E7%BB%9F</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E8%8C%83%E5%BE%B7%E8%B2%9D%E5%80%AB</t>
   </si>
   <si>
-    <t>亞歷山大·范德貝倫</t>
+    <t>亚历山大·范德贝伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E6%80%BB%E7%90%86</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%B5%A8%E8%8D%89</t>
   </si>
   <si>
-    <t>火絨草</t>
+    <t>火绒草</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.at</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%91%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>阿爾卑斯山</t>
+    <t>阿尔卑斯山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
+    <t>半总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>代議民主</t>
+    <t>代议民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
+    <t>经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E6%A0%B9%E5%85%AC%E7%BA%A6</t>
@@ -539,25 +539,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>鄂圖曼帝國</t>
+    <t>鄂图曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E4%BA%BA</t>
   </si>
   <si>
-    <t>凱爾特人</t>
+    <t>凯尔特人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E9%87%8C%E5%BA%93%E5%A7%86</t>
@@ -575,25 +572,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E5%B7%B4%E7%AC%AC</t>
   </si>
   <si>
-    <t>倫巴第</t>
+    <t>伦巴第</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%93%A5%E7%89%B9</t>
   </si>
   <si>
-    <t>東哥特</t>
+    <t>东哥特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴伐利亞</t>
+    <t>巴伐利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>法蘭克</t>
+    <t>法兰克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%B0%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -641,13 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E8%92%82%E5%88%A9%E4%BA%9E%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>施蒂利亞公國</t>
+    <t>施蒂利亚公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%E4%BA%8C%E4%B8%96_(%E5%A5%A7%E5%9C%B0%E5%88%A9)</t>
   </si>
   <si>
-    <t>腓特烈二世 (奧地利)</t>
+    <t>腓特烈二世 (奥地利)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%83%AD%E7%B1%B3%E6%96%AF%E5%B0%94%C2%B7%E5%A5%A5%E6%89%98%E5%8D%A1%E4%BA%8C%E4%B8%96</t>
@@ -671,9 +668,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>維也納之戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%B4%9B%E5%A4%AB%E5%A5%87%E6%9D%A1%E7%BA%A6</t>
   </si>
   <si>
@@ -683,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%8C%A8%E4%BA%8C%E4%B8%96_(%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD)</t>
@@ -701,31 +695,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧地利帝國</t>
+    <t>奥地利帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%A5%A7%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>普奧戰爭</t>
+    <t>普奥战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%B8%BB%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>共主邦聯</t>
+    <t>共主邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8C%88%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧匈帝國</t>
+    <t>奥匈帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E8%8E%B1%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -749,25 +743,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>魏瑪共和國</t>
+    <t>魏玛共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A5%A7%E5%90%88%E4%BD%B5</t>
   </si>
   <si>
-    <t>德奧合併</t>
+    <t>德奥合并</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E5%9B%BD%E5%AE%B6%E6%9D%A1%E7%BA%A6</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%85%E4%B8%AD%E7%AB%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>永久中立國</t>
+    <t>永久中立国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -791,61 +785,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
+    <t>东欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>奧地利政治</t>
+    <t>奥地利政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>奧地利國會</t>
+    <t>奥地利国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E8%81%AF%E9%82%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>奧地利聯邦院</t>
+    <t>奥地利联邦院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>上議院</t>
+    <t>上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%9C%8B%E6%B0%91%E9%99%A2</t>
   </si>
   <si>
-    <t>奧地利國民院</t>
+    <t>奥地利国民院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>下議院</t>
+    <t>下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%B7%A6</t>
   </si>
   <si>
-    <t>中間偏左</t>
+    <t>中间偏左</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
   </si>
   <si>
-    <t>中間偏右</t>
+    <t>中间偏右</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E4%BA%BA%E6%B0%91%E5%85%9A</t>
@@ -869,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>大聯合政府</t>
+    <t>大联合政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E7%BF%BC%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右翼民粹主義</t>
+    <t>右翼民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E8%87%AA%E7%94%B1%E5%85%9A</t>
@@ -899,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%A0%E9%BB%A8</t>
   </si>
   <si>
-    <t>奧地利綠黨</t>
+    <t>奥地利绿党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E6%A0%B9%E5%85%B0%E5%B7%9E</t>
@@ -1013,21 +1007,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
   </si>
   <si>
-    <t>维也纳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>奧地利地理</t>
+    <t>奥地利地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8D%91%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>阿尔卑斯山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%9C%B0</t>
   </si>
   <si>
@@ -1049,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A0%BC%E6%B4%9B%E5%85%8B%E7%B4%8D%E5%B1%B1</t>
   </si>
   <si>
-    <t>大格洛克納山</t>
+    <t>大格洛克纳山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E7%9B%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>維也納盆地</t>
+    <t>维也纳盆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%98%E9%99%B5</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%88%BE%E6%B2%B3</t>
   </si>
   <si>
-    <t>穆爾河</t>
+    <t>穆尔河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E6%B2%B3</t>
@@ -1097,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E5%AF%9F%E8%B5%AB%E6%B2%B3</t>
   </si>
   <si>
-    <t>薩爾察赫河</t>
+    <t>萨尔察赫河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E6%B5%B7%E6%B4%8B%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>奧地利經濟</t>
+    <t>奥地利经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0</t>
   </si>
   <si>
-    <t>機械</t>
+    <t>机械</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -1163,19 +1151,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>電器</t>
+    <t>电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A1%E7%B9%94</t>
   </si>
   <si>
-    <t>紡織</t>
+    <t>纺织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%9C%E7%89%A7%E4%B8%9A</t>
@@ -1193,13 +1181,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC</t>
   </si>
   <si>
-    <t>豬</t>
+    <t>猪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF</t>
   </si>
   <si>
-    <t>馬鈴薯</t>
+    <t>马铃薯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9C%E8%8F%9C</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
+    <t>小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
@@ -1223,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B1%E9%A2%A8%E6%88%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>颱風戰機</t>
+    <t>台风战机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%91%99%E6%B2%B3%E7%95%94%E5%85%8B%E9%9B%B7%E5%A7%86%E6%96%AF</t>
@@ -1235,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>奧地利人口</t>
+    <t>奥地利人口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%BD%97%E5%B7%B4%E4%BA%BA%E7%A7%8D</t>
@@ -1259,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>羅曼語族</t>
+    <t>罗曼语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E4%BA%BA</t>
@@ -1271,13 +1259,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>法蘭克人</t>
+    <t>法兰克人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%89%8E%E5%85%92%E4%BA%BA</t>
   </si>
   <si>
-    <t>馬扎兒人</t>
+    <t>马扎儿人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E5%A5%B4%E4%BA%BA</t>
@@ -1289,19 +1277,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>德國人</t>
+    <t>德国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
+    <t>正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E5%AE%97</t>
@@ -1337,9 +1325,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
   </si>
   <si>
@@ -1349,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>奧地利教育</t>
+    <t>奥地利教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%BA%9A%C2%B7%E7%89%B9%E8%95%BE%E8%A5%BF%E4%BA%9A</t>
@@ -1361,13 +1346,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>奧地利文化</t>
+    <t>奥地利文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%A1%BF</t>
@@ -1409,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%C2%B7%E9%A6%AC%E5%8B%92</t>
   </si>
   <si>
-    <t>古斯塔夫·馬勒</t>
+    <t>古斯塔夫·马勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%A0%BC</t>
@@ -1439,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%A6%96_(%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B)</t>
   </si>
   <si>
-    <t>元首 (納粹德國)</t>
+    <t>元首 (纳粹德国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -1517,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -1541,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88%E9%99%8D%E8%87%A8%E7%AF%80</t>
   </si>
   <si>
-    <t>聖靈降臨節</t>
+    <t>圣灵降临节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%AF%8D%E5%8D%87%E5%A4%A9%E8%8A%82</t>
@@ -1559,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E8%81%96%E6%97%A5</t>
   </si>
   <si>
-    <t>諸聖日</t>
+    <t>诸圣日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
@@ -1571,37 +1556,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%AF%80%E7%BF%8C%E6%97%A5</t>
   </si>
   <si>
-    <t>聖誕節翌日</t>
+    <t>圣诞节翌日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%99%AF%E5%AE%AE</t>
   </si>
   <si>
-    <t>美景宮</t>
+    <t>美景宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1613,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -1625,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -1637,13 +1616,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1655,13 +1634,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1685,13 +1664,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%96%AF%E5%B8%83%E9%AD%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>因斯布魯克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E5%A5%A7%E9%81%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>冬季奧運會</t>
+    <t>冬季奥运会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B1%B1%E6%BB%91%E9%9B%AA</t>
@@ -1709,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E8%B6%B3%E7%90%83%E8%B6%85%E7%B4%9A%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>奧地利足球超級聯賽</t>
+    <t>奥地利足球超级联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%BF%AB%E9%80%9F</t>
@@ -1721,27 +1697,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%AD%E4%B9%9F%E7%B4%8D%E8%B6%B3%E7%90%83%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>奧地利維也納足球俱樂部</t>
+    <t>奥地利维也纳足球俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%86%A0%E8%BB%8D%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐洲冠軍聯賽</t>
+    <t>欧洲冠军联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A5%A7%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中奧關係</t>
+    <t>中奥关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>奥匈帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E4%B8%91%E6%9D%A1%E7%BA%A6</t>
   </si>
   <si>
@@ -1751,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%8C%AB%E5%BE%B7%E7%88%BE%E6%B9%96</t>
   </si>
   <si>
-    <t>新錫德爾湖</t>
+    <t>新锡德尔湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%B1%AA</t>
@@ -1805,25 +1778,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>奧地利交通</t>
+    <t>奥地利交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>奥地利軍事</t>
+    <t>奥地利军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>奧地利政黨</t>
+    <t>奥地利政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E9%9B%BB%E5%AD%90%E8%97%9D%E8%A1%93%E5%A4%A7%E7%8D%8E</t>
   </si>
   <si>
-    <t>奧地利電子藝術大獎</t>
+    <t>奥地利电子艺术大奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -1835,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%81%A9%E9%A1%BF%E5%B7%9E</t>
@@ -1847,21 +1820,15 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%B7%9E</t>
   </si>
   <si>
-    <t>下奧地利州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>上奧地利</t>
+    <t>上奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E6%B3%B0%E7%88%BE%E9%A6%AC%E5%85%8B%E5%B7%9E</t>
   </si>
   <si>
-    <t>施泰爾馬克州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Europe</t>
   </si>
   <si>
@@ -1895,9 +1862,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
@@ -1913,9 +1877,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
   </si>
   <si>
-    <t>丹麦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
   </si>
   <si>
@@ -1937,33 +1898,21 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
   </si>
   <si>
-    <t>波兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
   </si>
   <si>
-    <t>东欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1979,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2009,7 +1958,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -2021,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -2033,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -2051,13 +2000,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -2075,19 +2024,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -2111,7 +2060,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2129,19 +2078,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -2159,7 +2108,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -2213,7 +2162,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -2231,21 +2180,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
@@ -2261,9 +2207,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
   </si>
   <si>
@@ -2285,9 +2228,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
   </si>
   <si>
@@ -2303,9 +2243,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -2357,13 +2294,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
   </si>
   <si>
-    <t>属地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0</t>
@@ -2399,27 +2333,18 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
   </si>
   <si>
-    <t>欧盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
   </si>
   <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
   </si>
   <si>
-    <t>圣座</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
   </si>
   <si>
@@ -2459,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
   </si>
   <si>
-    <t>盧森堡市</t>
+    <t>卢森堡市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
@@ -2477,7 +2402,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
   </si>
   <si>
-    <t>瓦都茲</t>
+    <t>瓦都兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
@@ -2507,7 +2432,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>雷克雅維克</t>
+    <t>雷克雅维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E9%87%8C</t>
@@ -2525,9 +2450,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC</t>
   </si>
   <si>
-    <t>罗马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
   </si>
   <si>
@@ -2549,7 +2471,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE_(%E5%9F%8E%E5%B8%82)</t>
   </si>
   <si>
-    <t>聖馬力諾 (城市)</t>
+    <t>圣马力诺 (城市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%8E%B1%E5%A1%94</t>
@@ -2567,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B_(2017%E5%B9%B4)</t>
   </si>
   <si>
-    <t>加泰隆尼亞共和國 (2017年)</t>
+    <t>加泰隆尼亚共和国 (2017年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%BD%97%E9%82%A3</t>
@@ -2651,7 +2573,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>索菲亞</t>
+    <t>索菲亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
@@ -2663,7 +2585,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>普里什蒂納</t>
+    <t>普里什蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
@@ -2723,9 +2645,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -2747,27 +2666,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
   </si>
   <si>
@@ -2777,9 +2684,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
   </si>
   <si>
@@ -2789,19 +2693,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
+    <t>俄罗斯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -2825,7 +2729,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -2867,7 +2771,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -2885,7 +2789,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -2921,15 +2825,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
   </si>
   <si>
@@ -2939,7 +2840,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -2969,7 +2870,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
@@ -3023,7 +2924,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -3065,7 +2966,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -3149,7 +3050,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -3203,7 +3104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -3221,19 +3122,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3251,7 +3152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3263,7 +3164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3275,7 +3176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lexicon_Istoric_Retic</t>
@@ -3287,7 +3188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -6239,7 +6140,7 @@
         <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="G90" t="n">
         <v>12</v>
@@ -6265,10 +6166,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -6294,10 +6195,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6323,10 +6224,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -6352,10 +6253,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6381,10 +6282,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6410,10 +6311,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6439,10 +6340,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6468,10 +6369,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -6497,10 +6398,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6526,10 +6427,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6555,10 +6456,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6584,10 +6485,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -6613,10 +6514,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6642,10 +6543,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6671,10 +6572,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -6700,10 +6601,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6729,10 +6630,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6758,10 +6659,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6787,10 +6688,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6816,10 +6717,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6845,10 +6746,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6874,10 +6775,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6903,10 +6804,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6932,10 +6833,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -6961,10 +6862,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6990,10 +6891,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7019,10 +6920,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7048,10 +6949,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7077,10 +6978,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7106,10 +7007,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -7135,10 +7036,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7164,10 +7065,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7193,10 +7094,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7222,10 +7123,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7251,10 +7152,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7280,10 +7181,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -7309,10 +7210,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7338,10 +7239,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7367,10 +7268,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7396,10 +7297,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7425,10 +7326,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7454,10 +7355,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -7483,10 +7384,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7512,10 +7413,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7541,10 +7442,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7570,10 +7471,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7599,10 +7500,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7628,10 +7529,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>5</v>
@@ -7657,10 +7558,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7686,10 +7587,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7715,10 +7616,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7744,10 +7645,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -7773,10 +7674,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7802,10 +7703,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>12</v>
@@ -7831,10 +7732,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>5</v>
@@ -7860,10 +7761,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7889,10 +7790,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>7</v>
@@ -7918,10 +7819,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7947,10 +7848,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7976,10 +7877,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8005,10 +7906,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8034,10 +7935,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -8092,10 +7993,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8121,10 +8022,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8150,10 +8051,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8179,10 +8080,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8208,10 +8109,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8237,10 +8138,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8266,10 +8167,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8295,10 +8196,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -8324,10 +8225,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8353,10 +8254,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -8382,10 +8283,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8411,10 +8312,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8440,10 +8341,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8469,10 +8370,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -8498,10 +8399,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8527,10 +8428,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8556,10 +8457,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8585,10 +8486,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="G171" t="n">
         <v>5</v>
@@ -8614,10 +8515,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8643,10 +8544,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8672,10 +8573,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -8701,10 +8602,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8730,10 +8631,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8759,10 +8660,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8788,10 +8689,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8817,10 +8718,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8846,10 +8747,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8875,10 +8776,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8904,10 +8805,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8933,10 +8834,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8962,10 +8863,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8991,10 +8892,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9020,10 +8921,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9049,10 +8950,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9078,10 +8979,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9107,10 +9008,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9136,10 +9037,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9165,10 +9066,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9194,10 +9095,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9223,10 +9124,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9252,10 +9153,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9281,10 +9182,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9310,10 +9211,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9339,10 +9240,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9368,10 +9269,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9397,10 +9298,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9426,10 +9327,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9455,10 +9356,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9484,10 +9385,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9513,10 +9414,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9542,10 +9443,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9571,10 +9472,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9600,10 +9501,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9629,10 +9530,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9658,10 +9559,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9687,10 +9588,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9716,10 +9617,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9745,10 +9646,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>6</v>
@@ -9774,10 +9675,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9803,10 +9704,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9832,10 +9733,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9861,10 +9762,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9890,10 +9791,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9919,10 +9820,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -9948,10 +9849,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>17</v>
@@ -9977,10 +9878,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10006,10 +9907,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10035,10 +9936,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10064,10 +9965,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10093,10 +9994,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10122,10 +10023,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10151,10 +10052,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10180,10 +10081,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>272</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10209,10 +10110,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>8</v>
@@ -10325,10 +10226,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -10354,10 +10255,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10383,10 +10284,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10412,10 +10313,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10441,10 +10342,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10470,10 +10371,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10499,10 +10400,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10528,10 +10429,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10557,10 +10458,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10586,10 +10487,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10615,10 +10516,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10644,10 +10545,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10673,10 +10574,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10702,10 +10603,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10731,10 +10632,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10760,10 +10661,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10789,10 +10690,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10818,10 +10719,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10847,10 +10748,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10876,10 +10777,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10905,10 +10806,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10934,10 +10835,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10963,10 +10864,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10992,10 +10893,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11021,10 +10922,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11050,10 +10951,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11079,10 +10980,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11108,10 +11009,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -11137,10 +11038,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11166,10 +11067,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -11195,10 +11096,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11224,10 +11125,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11253,10 +11154,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -11282,10 +11183,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11311,10 +11212,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11340,10 +11241,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11369,10 +11270,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -11398,10 +11299,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11427,10 +11328,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="G269" t="n">
         <v>101</v>
@@ -11456,10 +11357,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11485,10 +11386,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>144</v>
       </c>
       <c r="G271" t="n">
         <v>7</v>
@@ -11514,10 +11415,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G272" t="n">
         <v>5</v>
@@ -11543,10 +11444,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G273" t="n">
         <v>5</v>
@@ -11572,10 +11473,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G274" t="n">
         <v>8</v>
@@ -11601,10 +11502,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11630,10 +11531,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G276" t="n">
         <v>7</v>
@@ -11659,10 +11560,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -11688,10 +11589,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11717,10 +11618,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -11746,10 +11647,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G280" t="n">
         <v>6</v>
@@ -11775,10 +11676,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G281" t="n">
         <v>7</v>
@@ -11804,10 +11705,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G282" t="n">
         <v>5</v>
@@ -11833,10 +11734,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>6</v>
@@ -11862,10 +11763,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11891,10 +11792,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11920,10 +11821,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G286" t="n">
         <v>7</v>
@@ -11949,10 +11850,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>322</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11978,10 +11879,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12007,10 +11908,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12036,10 +11937,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>4</v>
@@ -12065,10 +11966,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12094,10 +11995,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12123,10 +12024,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12152,10 +12053,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12181,10 +12082,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12210,10 +12111,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>232</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12239,10 +12140,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12268,10 +12169,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12297,10 +12198,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12326,10 +12227,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12355,10 +12256,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12384,10 +12285,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12413,10 +12314,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -12442,10 +12343,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12471,10 +12372,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12500,10 +12401,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12529,10 +12430,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12558,10 +12459,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12587,10 +12488,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12616,10 +12517,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12645,10 +12546,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>3</v>
@@ -12674,10 +12575,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>5</v>
@@ -12703,10 +12604,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F313" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12732,10 +12633,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12761,10 +12662,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>610</v>
+        <v>304</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12790,10 +12691,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12819,10 +12720,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F317" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12848,10 +12749,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>316</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12877,10 +12778,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F319" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12906,10 +12807,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F320" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12935,10 +12836,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F321" t="s">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12964,10 +12865,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G322" t="n">
         <v>9</v>
@@ -12993,10 +12894,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13022,10 +12923,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G324" t="n">
         <v>5</v>
@@ -13051,10 +12952,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F325" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -13080,10 +12981,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F326" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G326" t="n">
         <v>4</v>
@@ -13109,10 +13010,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F327" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -13138,10 +13039,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F328" t="s">
-        <v>626</v>
+        <v>529</v>
       </c>
       <c r="G328" t="n">
         <v>6</v>
@@ -13167,10 +13068,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F329" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G329" t="n">
         <v>6</v>
@@ -13196,10 +13097,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F330" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -13225,10 +13126,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F331" t="s">
-        <v>632</v>
+        <v>539</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -13254,10 +13155,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="F332" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="G332" t="n">
         <v>5</v>
@@ -13283,10 +13184,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="F333" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="G333" t="n">
         <v>6</v>
@@ -13312,10 +13213,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F334" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
@@ -13341,10 +13242,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F335" t="s">
-        <v>640</v>
+        <v>152</v>
       </c>
       <c r="G335" t="n">
         <v>4</v>
@@ -13370,10 +13271,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F336" t="s">
-        <v>642</v>
+        <v>535</v>
       </c>
       <c r="G336" t="n">
         <v>4</v>
@@ -13399,10 +13300,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="F337" t="s">
-        <v>644</v>
+        <v>256</v>
       </c>
       <c r="G337" t="n">
         <v>3</v>
@@ -13428,10 +13329,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="F338" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13457,10 +13358,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="F339" t="s">
-        <v>648</v>
+        <v>533</v>
       </c>
       <c r="G339" t="n">
         <v>6</v>
@@ -13486,10 +13387,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="F340" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -13515,10 +13416,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="F341" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="G341" t="n">
         <v>6</v>
@@ -13544,10 +13445,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="F342" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="G342" t="n">
         <v>6</v>
@@ -13573,10 +13474,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="F343" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="G343" t="n">
         <v>7</v>
@@ -13602,10 +13503,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="F344" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="G344" t="n">
         <v>4</v>
@@ -13631,10 +13532,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="F345" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="G345" t="n">
         <v>4</v>
@@ -13660,10 +13561,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="F346" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13689,10 +13590,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F347" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13718,10 +13619,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="F348" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="G348" t="n">
         <v>4</v>
@@ -13747,10 +13648,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="F349" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G349" t="n">
         <v>3</v>
@@ -13776,10 +13677,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="F350" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13805,10 +13706,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="F351" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13834,10 +13735,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="F352" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="G352" t="n">
         <v>4</v>
@@ -13863,10 +13764,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="F353" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G353" t="n">
         <v>4</v>
@@ -13892,10 +13793,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="F354" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G354" t="n">
         <v>4</v>
@@ -13921,10 +13822,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="F355" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G355" t="n">
         <v>4</v>
@@ -13950,10 +13851,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="F356" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13979,10 +13880,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="F357" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="G357" t="n">
         <v>4</v>
@@ -14008,10 +13909,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="F358" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="G358" t="n">
         <v>5</v>
@@ -14037,10 +13938,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="F359" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14066,10 +13967,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="F360" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -14095,10 +13996,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="F361" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G361" t="n">
         <v>3</v>
@@ -14124,10 +14025,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F362" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="G362" t="n">
         <v>6</v>
@@ -14153,10 +14054,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="F363" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="G363" t="n">
         <v>5</v>
@@ -14182,10 +14083,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="F364" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14211,10 +14112,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F365" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14240,10 +14141,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="F366" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14269,10 +14170,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="F367" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -14298,10 +14199,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="F368" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14327,10 +14228,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="F369" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14356,10 +14257,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="F370" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14385,10 +14286,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="F371" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14414,10 +14315,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="F372" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14443,10 +14344,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="F373" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="G373" t="n">
         <v>6</v>
@@ -14472,10 +14373,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="F374" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14501,10 +14402,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="F375" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14530,10 +14431,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="F376" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14559,10 +14460,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="F377" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14588,10 +14489,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="F378" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14617,10 +14518,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="F379" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14646,10 +14547,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="F380" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14675,10 +14576,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F381" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14704,10 +14605,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="F382" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14733,10 +14634,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="F383" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14762,10 +14663,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F384" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14791,10 +14692,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="F385" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14820,10 +14721,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="F386" t="s">
-        <v>742</v>
+        <v>653</v>
       </c>
       <c r="G386" t="n">
         <v>4</v>
@@ -14849,10 +14750,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="F387" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14878,10 +14779,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="F388" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14907,10 +14808,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="F389" t="s">
-        <v>748</v>
+        <v>655</v>
       </c>
       <c r="G389" t="n">
         <v>5</v>
@@ -14936,10 +14837,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="F390" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="G390" t="n">
         <v>6</v>
@@ -14965,10 +14866,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="F391" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14994,10 +14895,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="F392" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -15023,10 +14924,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="F393" t="s">
-        <v>756</v>
+        <v>637</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15052,10 +14953,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="F394" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15081,10 +14982,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="F395" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="G395" t="n">
         <v>3</v>
@@ -15110,10 +15011,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="F396" t="s">
-        <v>762</v>
+        <v>541</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15139,10 +15040,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="F397" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15168,10 +15069,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="F398" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15197,10 +15098,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="F399" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15226,10 +15127,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="F400" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15255,10 +15156,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="F401" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15284,10 +15185,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="F402" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15313,10 +15214,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="F403" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15342,10 +15243,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="F404" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15371,10 +15272,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="F405" t="s">
-        <v>780</v>
+        <v>681</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15400,10 +15301,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="F406" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15429,10 +15330,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="F407" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15458,10 +15359,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F408" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15487,10 +15388,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15516,10 +15417,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15545,10 +15446,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="F411" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15574,10 +15475,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="F412" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15603,10 +15504,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="F413" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15632,10 +15533,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="F414" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15661,10 +15562,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="F415" t="s">
-        <v>796</v>
+        <v>164</v>
       </c>
       <c r="G415" t="n">
         <v>6</v>
@@ -15690,10 +15591,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="F416" t="s">
-        <v>798</v>
+        <v>673</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15719,10 +15620,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>799</v>
+        <v>775</v>
       </c>
       <c r="F417" t="s">
-        <v>800</v>
+        <v>671</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15748,10 +15649,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="F418" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15777,10 +15678,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="F419" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15806,10 +15707,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="F420" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15835,10 +15736,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="F421" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15864,10 +15765,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="F422" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15893,10 +15794,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="F423" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15922,10 +15823,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="F424" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15951,10 +15852,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="F425" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15980,10 +15881,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F426" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -16009,10 +15910,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F427" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16038,10 +15939,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="F428" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16067,10 +15968,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="F429" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16096,10 +15997,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="F430" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16125,10 +16026,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="F431" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16154,10 +16055,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="F432" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16183,10 +16084,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="F433" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16212,10 +16113,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="F434" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16241,10 +16142,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="F435" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16270,10 +16171,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="F436" t="s">
-        <v>836</v>
+        <v>420</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -16299,10 +16200,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="F437" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16328,10 +16229,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="F438" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16357,10 +16258,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="F439" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16386,10 +16287,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="F440" t="s">
-        <v>798</v>
+        <v>673</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16415,10 +16316,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
       <c r="F441" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16444,10 +16345,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="F442" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16473,10 +16374,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="F443" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16502,10 +16403,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="F444" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16531,10 +16432,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="F445" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16560,10 +16461,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="F446" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16589,10 +16490,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
       <c r="F447" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16618,10 +16519,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="F448" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16647,10 +16548,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="F449" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16676,10 +16577,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="F450" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16705,10 +16606,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
       <c r="F451" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16734,10 +16635,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="F452" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16763,10 +16664,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
       <c r="F453" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16792,10 +16693,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
       <c r="F454" t="s">
-        <v>870</v>
+        <v>844</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16821,10 +16722,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
       <c r="F455" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16850,10 +16751,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="F456" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16879,10 +16780,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="F457" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16908,10 +16809,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="F458" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16937,10 +16838,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="F459" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16966,10 +16867,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="F460" t="s">
-        <v>880</v>
+        <v>854</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16995,10 +16896,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="F461" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17024,10 +16925,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>883</v>
+        <v>857</v>
       </c>
       <c r="F462" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17053,10 +16954,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="F463" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17082,10 +16983,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="F464" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17111,10 +17012,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="F465" t="s">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17140,10 +17041,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>891</v>
+        <v>865</v>
       </c>
       <c r="F466" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17169,10 +17070,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="F467" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17198,10 +17099,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="F468" t="s">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17227,10 +17128,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
       <c r="F469" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17256,10 +17157,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="F470" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="G470" t="n">
         <v>4</v>
@@ -17285,10 +17186,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="F471" t="s">
-        <v>902</v>
+        <v>667</v>
       </c>
       <c r="G471" t="n">
         <v>3</v>
@@ -17343,10 +17244,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>903</v>
+        <v>876</v>
       </c>
       <c r="F473" t="s">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17372,10 +17273,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>905</v>
+        <v>878</v>
       </c>
       <c r="F474" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="G474" t="n">
         <v>3</v>
@@ -17401,10 +17302,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="F475" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17430,10 +17331,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="F476" t="s">
-        <v>910</v>
+        <v>635</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17459,10 +17360,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>911</v>
+        <v>883</v>
       </c>
       <c r="F477" t="s">
-        <v>912</v>
+        <v>621</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17488,10 +17389,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>913</v>
+        <v>884</v>
       </c>
       <c r="F478" t="s">
-        <v>914</v>
+        <v>527</v>
       </c>
       <c r="G478" t="n">
         <v>2</v>
@@ -17517,10 +17418,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>915</v>
+        <v>885</v>
       </c>
       <c r="F479" t="s">
-        <v>916</v>
+        <v>625</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17546,10 +17447,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
       <c r="F480" t="s">
-        <v>918</v>
+        <v>887</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17575,10 +17476,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F481" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17604,10 +17505,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>919</v>
+        <v>888</v>
       </c>
       <c r="F482" t="s">
-        <v>920</v>
+        <v>616</v>
       </c>
       <c r="G482" t="n">
         <v>2</v>
@@ -17633,10 +17534,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>921</v>
+        <v>889</v>
       </c>
       <c r="F483" t="s">
-        <v>922</v>
+        <v>890</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17662,10 +17563,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="F484" t="s">
-        <v>924</v>
+        <v>892</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17691,10 +17592,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>925</v>
+        <v>893</v>
       </c>
       <c r="F485" t="s">
-        <v>926</v>
+        <v>894</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17720,10 +17621,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="F486" t="s">
-        <v>928</v>
+        <v>896</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17749,10 +17650,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>929</v>
+        <v>897</v>
       </c>
       <c r="F487" t="s">
-        <v>930</v>
+        <v>898</v>
       </c>
       <c r="G487" t="n">
         <v>2</v>
@@ -17778,10 +17679,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>931</v>
+        <v>899</v>
       </c>
       <c r="F488" t="s">
-        <v>932</v>
+        <v>900</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17807,10 +17708,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>933</v>
+        <v>901</v>
       </c>
       <c r="F489" t="s">
-        <v>934</v>
+        <v>902</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17836,10 +17737,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>935</v>
+        <v>903</v>
       </c>
       <c r="F490" t="s">
-        <v>936</v>
+        <v>904</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17865,10 +17766,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>937</v>
+        <v>905</v>
       </c>
       <c r="F491" t="s">
-        <v>938</v>
+        <v>906</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17894,10 +17795,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>939</v>
+        <v>907</v>
       </c>
       <c r="F492" t="s">
-        <v>940</v>
+        <v>908</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17923,10 +17824,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>941</v>
+        <v>909</v>
       </c>
       <c r="F493" t="s">
-        <v>942</v>
+        <v>910</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17952,10 +17853,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>943</v>
+        <v>911</v>
       </c>
       <c r="F494" t="s">
-        <v>944</v>
+        <v>912</v>
       </c>
       <c r="G494" t="n">
         <v>3</v>
@@ -17981,10 +17882,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>945</v>
+        <v>913</v>
       </c>
       <c r="F495" t="s">
-        <v>946</v>
+        <v>914</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18010,10 +17911,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>947</v>
+        <v>915</v>
       </c>
       <c r="F496" t="s">
-        <v>948</v>
+        <v>916</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18039,10 +17940,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="F497" t="s">
-        <v>950</v>
+        <v>918</v>
       </c>
       <c r="G497" t="n">
         <v>5</v>
@@ -18068,10 +17969,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>951</v>
+        <v>919</v>
       </c>
       <c r="F498" t="s">
-        <v>952</v>
+        <v>920</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18097,10 +17998,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>953</v>
+        <v>921</v>
       </c>
       <c r="F499" t="s">
-        <v>954</v>
+        <v>922</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18126,10 +18027,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>955</v>
+        <v>923</v>
       </c>
       <c r="F500" t="s">
-        <v>956</v>
+        <v>924</v>
       </c>
       <c r="G500" t="n">
         <v>2</v>
@@ -18155,10 +18056,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>957</v>
+        <v>925</v>
       </c>
       <c r="F501" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18184,10 +18085,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>959</v>
+        <v>927</v>
       </c>
       <c r="F502" t="s">
-        <v>960</v>
+        <v>928</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18213,10 +18114,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>961</v>
+        <v>929</v>
       </c>
       <c r="F503" t="s">
-        <v>962</v>
+        <v>930</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18242,10 +18143,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="F504" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18271,10 +18172,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>963</v>
+        <v>931</v>
       </c>
       <c r="F505" t="s">
-        <v>964</v>
+        <v>932</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -18300,10 +18201,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>965</v>
+        <v>933</v>
       </c>
       <c r="F506" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18329,10 +18230,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>967</v>
+        <v>935</v>
       </c>
       <c r="F507" t="s">
-        <v>968</v>
+        <v>936</v>
       </c>
       <c r="G507" t="n">
         <v>3</v>
@@ -18358,10 +18259,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="F508" t="s">
-        <v>970</v>
+        <v>726</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18387,10 +18288,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>971</v>
+        <v>938</v>
       </c>
       <c r="F509" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18416,10 +18317,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>973</v>
+        <v>940</v>
       </c>
       <c r="F510" t="s">
-        <v>974</v>
+        <v>941</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18445,10 +18346,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
       <c r="F511" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18474,10 +18375,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>977</v>
+        <v>944</v>
       </c>
       <c r="F512" t="s">
-        <v>978</v>
+        <v>945</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18503,10 +18404,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>979</v>
+        <v>946</v>
       </c>
       <c r="F513" t="s">
-        <v>980</v>
+        <v>947</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18532,10 +18433,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>981</v>
+        <v>948</v>
       </c>
       <c r="F514" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18561,10 +18462,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="F515" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18590,10 +18491,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="F516" t="s">
-        <v>986</v>
+        <v>953</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18619,10 +18520,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>987</v>
+        <v>954</v>
       </c>
       <c r="F517" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18648,10 +18549,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>989</v>
+        <v>956</v>
       </c>
       <c r="F518" t="s">
-        <v>990</v>
+        <v>957</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18677,10 +18578,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>991</v>
+        <v>958</v>
       </c>
       <c r="F519" t="s">
-        <v>992</v>
+        <v>959</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18706,10 +18607,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>993</v>
+        <v>960</v>
       </c>
       <c r="F520" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18735,10 +18636,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>995</v>
+        <v>962</v>
       </c>
       <c r="F521" t="s">
-        <v>996</v>
+        <v>963</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18764,10 +18665,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="F522" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18793,10 +18694,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>999</v>
+        <v>966</v>
       </c>
       <c r="F523" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
@@ -18822,10 +18723,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="F524" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18851,10 +18752,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1003</v>
+        <v>970</v>
       </c>
       <c r="F525" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18880,10 +18781,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="F526" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18909,10 +18810,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="F527" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18938,10 +18839,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="F528" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18967,10 +18868,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="F529" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18996,10 +18897,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="F530" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19025,10 +18926,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="F531" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19054,10 +18955,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="F532" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19083,10 +18984,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
       <c r="F533" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19112,10 +19013,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="F534" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19141,10 +19042,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="F535" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19170,10 +19071,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="F536" t="s">
-        <v>1024</v>
+        <v>991</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19199,10 +19100,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="F537" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19228,10 +19129,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="F538" t="s">
-        <v>1028</v>
+        <v>995</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19257,10 +19158,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1029</v>
+        <v>996</v>
       </c>
       <c r="F539" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19286,10 +19187,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="F540" t="s">
-        <v>1032</v>
+        <v>999</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19315,10 +19216,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="F541" t="s">
-        <v>1034</v>
+        <v>1001</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19344,10 +19245,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1035</v>
+        <v>1002</v>
       </c>
       <c r="F542" t="s">
-        <v>1036</v>
+        <v>1003</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19373,10 +19274,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1037</v>
+        <v>1004</v>
       </c>
       <c r="F543" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19402,10 +19303,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1039</v>
+        <v>1006</v>
       </c>
       <c r="F544" t="s">
-        <v>1040</v>
+        <v>1007</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19431,10 +19332,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1041</v>
+        <v>1008</v>
       </c>
       <c r="F545" t="s">
-        <v>1042</v>
+        <v>1009</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19460,10 +19361,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1043</v>
+        <v>1010</v>
       </c>
       <c r="F546" t="s">
-        <v>1044</v>
+        <v>1011</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19489,10 +19390,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1045</v>
+        <v>1012</v>
       </c>
       <c r="F547" t="s">
-        <v>1046</v>
+        <v>1013</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19518,10 +19419,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1047</v>
+        <v>1014</v>
       </c>
       <c r="F548" t="s">
-        <v>1048</v>
+        <v>1015</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19547,10 +19448,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F549" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19576,10 +19477,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1049</v>
+        <v>1016</v>
       </c>
       <c r="F550" t="s">
-        <v>1050</v>
+        <v>1017</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19605,10 +19506,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1051</v>
+        <v>1018</v>
       </c>
       <c r="F551" t="s">
-        <v>1052</v>
+        <v>1019</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19634,10 +19535,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1053</v>
+        <v>1020</v>
       </c>
       <c r="F552" t="s">
-        <v>1054</v>
+        <v>1021</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19663,10 +19564,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1055</v>
+        <v>1022</v>
       </c>
       <c r="F553" t="s">
-        <v>1056</v>
+        <v>1023</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19692,10 +19593,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1057</v>
+        <v>1024</v>
       </c>
       <c r="F554" t="s">
-        <v>1058</v>
+        <v>1025</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19721,10 +19622,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1059</v>
+        <v>1026</v>
       </c>
       <c r="F555" t="s">
-        <v>1060</v>
+        <v>1027</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19750,10 +19651,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1061</v>
+        <v>1028</v>
       </c>
       <c r="F556" t="s">
-        <v>1062</v>
+        <v>1029</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19779,10 +19680,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1063</v>
+        <v>1030</v>
       </c>
       <c r="F557" t="s">
-        <v>1064</v>
+        <v>1031</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19808,10 +19709,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1065</v>
+        <v>1032</v>
       </c>
       <c r="F558" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19837,10 +19738,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1067</v>
+        <v>1034</v>
       </c>
       <c r="F559" t="s">
-        <v>1068</v>
+        <v>1035</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19866,10 +19767,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1069</v>
+        <v>1036</v>
       </c>
       <c r="F560" t="s">
-        <v>1070</v>
+        <v>1037</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19895,10 +19796,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1071</v>
+        <v>1038</v>
       </c>
       <c r="F561" t="s">
-        <v>1072</v>
+        <v>1039</v>
       </c>
       <c r="G561" t="n">
         <v>3</v>
@@ -19924,10 +19825,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1073</v>
+        <v>1040</v>
       </c>
       <c r="F562" t="s">
-        <v>1074</v>
+        <v>1041</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19953,10 +19854,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1075</v>
+        <v>1042</v>
       </c>
       <c r="F563" t="s">
-        <v>1076</v>
+        <v>1043</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19982,10 +19883,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1077</v>
+        <v>1044</v>
       </c>
       <c r="F564" t="s">
-        <v>1078</v>
+        <v>1045</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20011,10 +19912,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1079</v>
+        <v>1046</v>
       </c>
       <c r="F565" t="s">
-        <v>1080</v>
+        <v>1047</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20040,10 +19941,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1081</v>
+        <v>1048</v>
       </c>
       <c r="F566" t="s">
-        <v>1082</v>
+        <v>1049</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20069,10 +19970,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1083</v>
+        <v>1050</v>
       </c>
       <c r="F567" t="s">
-        <v>1084</v>
+        <v>1051</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20098,10 +19999,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1085</v>
+        <v>1052</v>
       </c>
       <c r="F568" t="s">
-        <v>1086</v>
+        <v>1053</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20127,10 +20028,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1087</v>
+        <v>1054</v>
       </c>
       <c r="F569" t="s">
-        <v>1088</v>
+        <v>1055</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20156,10 +20057,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1089</v>
+        <v>1056</v>
       </c>
       <c r="F570" t="s">
-        <v>1090</v>
+        <v>1057</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>

--- a/xlsx/奥地利_intext.xlsx
+++ b/xlsx/奥地利_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1105">
   <si>
     <t>奥地利</t>
   </si>
@@ -29,7 +29,7 @@
     <t>奥地利国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_奥地利</t>
+    <t>体育运动_体育运动_奥林匹克运动会_奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E5%9B%BD%E5%BE%BD</t>
@@ -1880,592 +1880,634 @@
     <t>摩纳哥</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>聯合國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>聯合國會員國列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>阿爾巴尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>马其顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>有限承认国家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E5%85%B9</t>
+  </si>
+  <si>
+    <t>阿布哈兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E6%B6%85%E8%8C%A8%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>顿涅茨克人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%94%98%E6%96%AF%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>卢甘斯克人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>纳戈尔诺-卡拉巴赫共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北塞浦路斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
+  </si>
+  <si>
+    <t>南奥塞梯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%B2%BF%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>德涅斯特河沿岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞克羅提利與德凱利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0</t>
+  </si>
+  <si>
+    <t>奥兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
+  </si>
+  <si>
+    <t>扬马延</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>根西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>主權</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>圣座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>马耳他骑士团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>阿爾巴尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>马其顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>有限承认国家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E5%85%B9</t>
-  </si>
-  <si>
-    <t>阿布哈兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E6%B6%85%E8%8C%A8%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>顿涅茨克人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%94%98%E6%96%AF%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>卢甘斯克人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>纳戈尔诺-卡拉巴赫共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
-  </si>
-  <si>
-    <t>南奥塞梯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%B2%BF%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>德涅斯特河沿岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞克羅提利與德凱利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0</t>
-  </si>
-  <si>
-    <t>奥兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
-  </si>
-  <si>
-    <t>扬马延</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>根西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>加泰罗尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>主權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>圣座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>马耳他骑士团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -3636,7 +3678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I570"/>
+  <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3864,7 +3906,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -5575,7 +5617,7 @@
         <v>128</v>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -6242,7 +6284,7 @@
         <v>174</v>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -13086,7 +13128,7 @@
         <v>622</v>
       </c>
       <c r="G326" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13115,7 +13157,7 @@
         <v>624</v>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13144,7 +13186,7 @@
         <v>626</v>
       </c>
       <c r="G328" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -13173,7 +13215,7 @@
         <v>628</v>
       </c>
       <c r="G329" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -13202,7 +13244,7 @@
         <v>630</v>
       </c>
       <c r="G330" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -13231,7 +13273,7 @@
         <v>632</v>
       </c>
       <c r="G331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -13260,7 +13302,7 @@
         <v>634</v>
       </c>
       <c r="G332" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13318,7 +13360,7 @@
         <v>638</v>
       </c>
       <c r="G334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13347,7 +13389,7 @@
         <v>640</v>
       </c>
       <c r="G335" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -13376,7 +13418,7 @@
         <v>642</v>
       </c>
       <c r="G336" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -13405,7 +13447,7 @@
         <v>644</v>
       </c>
       <c r="G337" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13434,7 +13476,7 @@
         <v>646</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -13463,7 +13505,7 @@
         <v>648</v>
       </c>
       <c r="G339" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -13492,7 +13534,7 @@
         <v>650</v>
       </c>
       <c r="G340" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -13521,7 +13563,7 @@
         <v>652</v>
       </c>
       <c r="G341" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13550,7 +13592,7 @@
         <v>654</v>
       </c>
       <c r="G342" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13608,7 +13650,7 @@
         <v>658</v>
       </c>
       <c r="G344" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -13637,7 +13679,7 @@
         <v>660</v>
       </c>
       <c r="G345" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13666,7 +13708,7 @@
         <v>662</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13695,7 +13737,7 @@
         <v>664</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13724,7 +13766,7 @@
         <v>666</v>
       </c>
       <c r="G348" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13753,7 +13795,7 @@
         <v>668</v>
       </c>
       <c r="G349" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13782,7 +13824,7 @@
         <v>670</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13840,7 +13882,7 @@
         <v>674</v>
       </c>
       <c r="G352" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13898,7 +13940,7 @@
         <v>678</v>
       </c>
       <c r="G354" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13927,7 +13969,7 @@
         <v>680</v>
       </c>
       <c r="G355" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13956,7 +13998,7 @@
         <v>682</v>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -14014,7 +14056,7 @@
         <v>686</v>
       </c>
       <c r="G358" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -14043,7 +14085,7 @@
         <v>688</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -14072,7 +14114,7 @@
         <v>690</v>
       </c>
       <c r="G360" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -14101,7 +14143,7 @@
         <v>692</v>
       </c>
       <c r="G361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -14130,7 +14172,7 @@
         <v>694</v>
       </c>
       <c r="G362" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -14188,7 +14230,7 @@
         <v>698</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -14246,7 +14288,7 @@
         <v>702</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14275,7 +14317,7 @@
         <v>704</v>
       </c>
       <c r="G367" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -14304,7 +14346,7 @@
         <v>706</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -14391,7 +14433,7 @@
         <v>712</v>
       </c>
       <c r="G371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -14420,7 +14462,7 @@
         <v>714</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -14449,7 +14491,7 @@
         <v>716</v>
       </c>
       <c r="G373" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -14507,7 +14549,7 @@
         <v>720</v>
       </c>
       <c r="G375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14536,7 +14578,7 @@
         <v>722</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -14623,7 +14665,7 @@
         <v>728</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14681,7 +14723,7 @@
         <v>732</v>
       </c>
       <c r="G381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -14826,7 +14868,7 @@
         <v>742</v>
       </c>
       <c r="G386" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -14913,7 +14955,7 @@
         <v>748</v>
       </c>
       <c r="G389" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -14942,7 +14984,7 @@
         <v>750</v>
       </c>
       <c r="G390" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -14971,7 +15013,7 @@
         <v>752</v>
       </c>
       <c r="G391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -15000,7 +15042,7 @@
         <v>754</v>
       </c>
       <c r="G392" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -15087,7 +15129,7 @@
         <v>760</v>
       </c>
       <c r="G395" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -15116,7 +15158,7 @@
         <v>762</v>
       </c>
       <c r="G396" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -15145,7 +15187,7 @@
         <v>764</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15174,7 +15216,7 @@
         <v>766</v>
       </c>
       <c r="G398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -15261,7 +15303,7 @@
         <v>772</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15458,10 +15500,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
       <c r="F408" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15487,10 +15529,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15516,13 +15558,13 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -15545,10 +15587,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>705</v>
+        <v>791</v>
       </c>
       <c r="F411" t="s">
-        <v>706</v>
+        <v>792</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15574,13 +15616,13 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="F412" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="G412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -15603,10 +15645,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F413" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15632,10 +15674,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>793</v>
+        <v>709</v>
       </c>
       <c r="F414" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15661,13 +15703,13 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F415" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G415" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -15690,10 +15732,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F416" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15719,10 +15761,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>799</v>
+        <v>715</v>
       </c>
       <c r="F417" t="s">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15754,7 +15796,7 @@
         <v>802</v>
       </c>
       <c r="G418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -15812,7 +15854,7 @@
         <v>806</v>
       </c>
       <c r="G420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -15841,7 +15883,7 @@
         <v>808</v>
       </c>
       <c r="G421" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -15870,7 +15912,7 @@
         <v>810</v>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -15980,13 +16022,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>621</v>
+        <v>817</v>
       </c>
       <c r="F426" t="s">
-        <v>622</v>
+        <v>818</v>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -16009,13 +16051,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F427" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16038,10 +16080,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F428" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16067,10 +16109,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F429" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16096,10 +16138,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F430" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16125,10 +16167,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F431" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16154,13 +16196,13 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F432" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -16183,10 +16225,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F433" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16212,10 +16254,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F434" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16241,10 +16283,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F435" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16270,13 +16312,13 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F436" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16299,10 +16341,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F437" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16328,10 +16370,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F438" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16357,10 +16399,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F439" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16386,10 +16428,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="F440" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16415,10 +16457,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F441" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16444,13 +16486,13 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F442" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="G442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -16473,10 +16515,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="F443" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16502,10 +16544,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="F444" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16531,10 +16573,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F445" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16560,10 +16602,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>853</v>
+        <v>809</v>
       </c>
       <c r="F446" t="s">
-        <v>854</v>
+        <v>810</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16589,10 +16631,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F447" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16618,10 +16660,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F448" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16647,10 +16689,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F449" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16676,10 +16718,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F450" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16705,10 +16747,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F451" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16734,10 +16776,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F452" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16763,10 +16805,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F453" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16792,10 +16834,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F454" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16821,10 +16863,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F455" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16850,10 +16892,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>777</v>
+        <v>875</v>
       </c>
       <c r="F456" t="s">
-        <v>778</v>
+        <v>876</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16879,10 +16921,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="F457" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16908,10 +16950,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="F458" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16937,10 +16979,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F459" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16966,10 +17008,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F460" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16995,10 +17037,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="F461" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17024,10 +17066,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>883</v>
+        <v>789</v>
       </c>
       <c r="F462" t="s">
-        <v>884</v>
+        <v>790</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17053,10 +17095,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F463" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17082,10 +17124,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F464" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17111,10 +17153,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F465" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17140,10 +17182,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F466" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17169,10 +17211,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F467" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17198,10 +17240,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F468" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17227,10 +17269,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F469" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17256,13 +17298,13 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F470" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G470" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17285,13 +17327,13 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F471" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G471" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -17314,10 +17356,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>165</v>
+        <v>905</v>
       </c>
       <c r="F472" t="s">
-        <v>166</v>
+        <v>906</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17343,10 +17385,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="F473" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17372,13 +17414,13 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="F474" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="G474" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -17401,10 +17443,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="F475" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17430,13 +17472,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F476" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="G476" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -17459,13 +17501,13 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F477" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="G477" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -17488,13 +17530,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>913</v>
+        <v>165</v>
       </c>
       <c r="F478" t="s">
-        <v>914</v>
+        <v>166</v>
       </c>
       <c r="G478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -17517,10 +17559,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F479" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17546,13 +17588,13 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F480" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G480" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -17575,10 +17617,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>551</v>
+        <v>921</v>
       </c>
       <c r="F481" t="s">
-        <v>552</v>
+        <v>922</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17604,13 +17646,13 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="F482" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="G482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -17633,13 +17675,13 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="F483" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="G483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -17662,13 +17704,13 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="F484" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="G484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -17691,10 +17733,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="F485" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17720,13 +17762,13 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="F486" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -17749,13 +17791,13 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>929</v>
+        <v>551</v>
       </c>
       <c r="F487" t="s">
-        <v>930</v>
+        <v>552</v>
       </c>
       <c r="G487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -17778,13 +17820,13 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F488" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -17807,13 +17849,13 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F489" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -17836,10 +17878,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F490" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17865,10 +17907,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F491" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17894,10 +17936,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F492" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17923,13 +17965,13 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F493" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -17952,13 +17994,13 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F494" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G494" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17981,10 +18023,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F495" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18010,10 +18052,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F496" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18039,13 +18081,13 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F497" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G497" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H497" t="s">
         <v>4</v>
@@ -18068,13 +18110,13 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F498" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="G498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -18097,13 +18139,13 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F499" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -18126,13 +18168,13 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F500" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G500" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -18155,10 +18197,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F501" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18184,13 +18226,13 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F502" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -18213,13 +18255,13 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F503" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G503" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -18242,10 +18284,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>667</v>
+        <v>965</v>
       </c>
       <c r="F504" t="s">
-        <v>668</v>
+        <v>966</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18271,10 +18313,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="F505" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -18300,13 +18342,13 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="F506" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -18329,13 +18371,13 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F507" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="G507" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -18358,13 +18400,13 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="F508" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="G508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18387,10 +18429,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="F509" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18416,13 +18458,13 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>973</v>
+        <v>677</v>
       </c>
       <c r="F510" t="s">
-        <v>974</v>
+        <v>678</v>
       </c>
       <c r="G510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -18445,13 +18487,13 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F511" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -18474,10 +18516,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F512" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18503,13 +18545,13 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F513" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G513" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -18532,10 +18574,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F514" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18561,10 +18603,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F515" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18590,10 +18632,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F516" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18619,10 +18661,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F517" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18648,10 +18690,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F518" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18677,10 +18719,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F519" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18706,10 +18748,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F520" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18735,10 +18777,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F521" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18764,10 +18806,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F522" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18793,13 +18835,13 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F523" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="G523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H523" t="s">
         <v>4</v>
@@ -18822,10 +18864,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F524" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18851,10 +18893,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F525" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18880,10 +18922,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F526" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18909,10 +18951,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F527" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18938,10 +18980,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>677</v>
+        <v>1011</v>
       </c>
       <c r="F528" t="s">
-        <v>678</v>
+        <v>1012</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18967,13 +19009,13 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F529" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -18996,10 +19038,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="F530" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19025,10 +19067,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="F531" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19054,10 +19096,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="F532" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19083,10 +19125,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="F533" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19112,10 +19154,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1019</v>
+        <v>687</v>
       </c>
       <c r="F534" t="s">
-        <v>1020</v>
+        <v>688</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19141,10 +19183,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="F535" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19170,10 +19212,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F536" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19199,10 +19241,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F537" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19228,10 +19270,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F538" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19257,10 +19299,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="F539" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19286,10 +19328,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F540" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19315,10 +19357,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F541" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19344,10 +19386,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F542" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19373,10 +19415,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="F543" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19402,10 +19444,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F544" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19431,10 +19473,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F545" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19460,10 +19502,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F546" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19489,10 +19531,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="F547" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19518,10 +19560,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F548" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19547,10 +19589,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>551</v>
+        <v>1051</v>
       </c>
       <c r="F549" t="s">
-        <v>552</v>
+        <v>1052</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19576,10 +19618,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="F550" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19605,10 +19647,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F551" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19634,10 +19676,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F552" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19663,10 +19705,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="F553" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19692,10 +19734,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="F554" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19721,10 +19763,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1059</v>
+        <v>551</v>
       </c>
       <c r="F555" t="s">
-        <v>1060</v>
+        <v>552</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19750,10 +19792,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F556" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19779,10 +19821,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="F557" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19808,10 +19850,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="F558" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19837,10 +19879,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="F559" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19866,10 +19908,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="F560" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19895,13 +19937,13 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F561" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G561" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H561" t="s">
         <v>4</v>
@@ -19924,10 +19966,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F562" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19953,10 +19995,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F563" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19982,10 +20024,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F564" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20011,10 +20053,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F565" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20040,10 +20082,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F566" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20069,13 +20111,13 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F567" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G567" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H567" t="s">
         <v>4</v>
@@ -20098,10 +20140,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F568" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20127,10 +20169,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F569" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20156,10 +20198,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F570" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20168,6 +20210,180 @@
         <v>4</v>
       </c>
       <c r="I570" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>0</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1</v>
+      </c>
+      <c r="D571" t="n">
+        <v>570</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>4</v>
+      </c>
+      <c r="I571" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>0</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1</v>
+      </c>
+      <c r="D572" t="n">
+        <v>571</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G572" t="n">
+        <v>1</v>
+      </c>
+      <c r="H572" t="s">
+        <v>4</v>
+      </c>
+      <c r="I572" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1</v>
+      </c>
+      <c r="D573" t="n">
+        <v>572</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G573" t="n">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>4</v>
+      </c>
+      <c r="I573" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>0</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1</v>
+      </c>
+      <c r="D574" t="n">
+        <v>573</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>4</v>
+      </c>
+      <c r="I574" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>0</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1</v>
+      </c>
+      <c r="D575" t="n">
+        <v>574</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1</v>
+      </c>
+      <c r="H575" t="s">
+        <v>4</v>
+      </c>
+      <c r="I575" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1</v>
+      </c>
+      <c r="D576" t="n">
+        <v>575</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1</v>
+      </c>
+      <c r="H576" t="s">
+        <v>4</v>
+      </c>
+      <c r="I576" t="n">
         <v>3</v>
       </c>
     </row>
